--- a/Fase 2/Evidencias Proyecto/Sprints/Burdown Chart/Burndown Chart – Sprint 5 (15–17 Septiembre).xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Burdown Chart/Burndown Chart – Sprint 5 (15–17 Septiembre).xlsx
@@ -325,11 +325,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="439765112"/>
-        <c:axId val="594837862"/>
+        <c:axId val="784511201"/>
+        <c:axId val="14248466"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="439765112"/>
+        <c:axId val="784511201"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -381,10 +381,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594837862"/>
+        <c:crossAx val="14248466"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="594837862"/>
+        <c:axId val="14248466"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +459,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439765112"/>
+        <c:crossAx val="784511201"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -741,7 +741,7 @@
     <col customWidth="1" min="11" max="11" width="38.63"/>
   </cols>
   <sheetData>
-    <row r="6">
+    <row r="6" ht="22.5" customHeight="1">
       <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -782,7 +782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
@@ -803,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
